--- a/data/LibCountsDanFinal.xlsx
+++ b/data/LibCountsDanFinal.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800"/>
+    <workbookView xWindow="2080" yWindow="1960" windowWidth="25600" windowHeight="14800"/>
   </bookViews>
   <sheets>
     <sheet name="CountsPerSample" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="LibAmplification" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" calcMode="autoNoTable" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="405">
   <si>
     <t>A2_GACTGCC_L002_R1_001.fastq:2726272</t>
   </si>
@@ -1148,9 +1148,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>1st leaf</t>
-  </si>
-  <si>
     <t>1st SAM</t>
   </si>
   <si>
@@ -1227,6 +1224,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ? </t>
+  </si>
+  <si>
+    <t>1st leaf.1</t>
+  </si>
+  <si>
+    <t>1st leaf.2</t>
+  </si>
+  <si>
+    <t>1st leaf.3</t>
+  </si>
+  <si>
+    <t>1st leaf.4</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1674,7 @@
   <dimension ref="C1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1743,28 +1752,28 @@
         <v>374</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="M6" t="s">
         <v>312</v>
@@ -1806,31 +1815,31 @@
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="E8" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="M8" t="s">
         <v>316</v>
@@ -1874,31 +1883,31 @@
     </row>
     <row r="10" spans="3:14">
       <c r="C10" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="M10" t="s">
         <v>318</v>
@@ -1940,31 +1949,31 @@
     </row>
     <row r="12" spans="3:14">
       <c r="C12" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="I12" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="M12" t="s">
         <v>321</v>
@@ -2008,31 +2017,31 @@
     </row>
     <row r="14" spans="3:14">
       <c r="C14" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="J14" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M14" t="s">
         <v>325</v>
@@ -2076,31 +2085,31 @@
     </row>
     <row r="16" spans="3:14">
       <c r="C16" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>379</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="K16" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -4167,12 +4176,12 @@
   <sheetData>
     <row r="4" spans="3:23">
       <c r="P4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="3:23">
       <c r="C6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
@@ -4200,7 +4209,7 @@
         <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2">
@@ -4234,25 +4243,25 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>374</v>
@@ -4263,16 +4272,16 @@
         <v>A2</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V7" s="5" t="str">
         <f>CONCATENATE($O7,V$6)</f>
@@ -4285,57 +4294,57 @@
     </row>
     <row r="8" spans="3:23">
       <c r="D8" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P8" s="5" t="str">
         <f>CONCATENATE($O8,P$6)</f>
         <v>B1</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="S8" s="5" t="str">
         <f>CONCATENATE($O8,S$16)</f>
         <v>B4</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="W8" s="5" t="str">
         <f>CONCATENATE($O8,W$6)</f>
@@ -4344,34 +4353,34 @@
     </row>
     <row r="9" spans="3:23">
       <c r="D9" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="J9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="L9" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P9" s="5" t="str">
         <f>CONCATENATE($O9,P$6)</f>
@@ -4390,13 +4399,13 @@
         <v>C4</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W9" s="5" t="str">
         <f>CONCATENATE($O9,W$6)</f>
@@ -4405,41 +4414,41 @@
     </row>
     <row r="10" spans="3:23">
       <c r="D10" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="K10" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P10" s="5" t="str">
         <f>CONCATENATE($O10,P$6)</f>
         <v>D1</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R10" s="5" t="str">
         <f>CONCATENATE($O10,R$6)</f>
@@ -4454,63 +4463,63 @@
         <v>D5</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V10" s="5" t="str">
         <f>CONCATENATE($O10,V$6)</f>
         <v>D7</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="3:23">
       <c r="D11" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="H11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="J11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="Q11" s="5" t="str">
         <f>CONCATENATE($O11,Q$6)</f>
         <v>E2</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S11" s="5" t="str">
         <f>CONCATENATE($O11,S$6)</f>
         <v>E4</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U11" s="5" t="str">
         <f>CONCATENATE($O11,U$6)</f>
@@ -4527,7 +4536,7 @@
     </row>
     <row r="12" spans="3:23">
       <c r="D12" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4598,42 +4607,42 @@
     </row>
     <row r="17" spans="3:23">
       <c r="C17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>374</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R17" s="5" t="str">
         <f>CONCATENATE($O17,R$16)</f>
@@ -4652,45 +4661,45 @@
         <v>A6</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="3:23">
       <c r="D18" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="5" t="str">
         <f>CONCATENATE($O18,Q$16)</f>
@@ -4701,7 +4710,7 @@
         <v>B3</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T18" s="5" t="str">
         <f>CONCATENATE($O18,T$16)</f>
@@ -4716,51 +4725,51 @@
         <v>B7</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="3:23">
       <c r="D19" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="L19" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="Q19" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T19" s="5" t="str">
         <f>CONCATENATE($O19,T$16)</f>
@@ -4771,64 +4780,64 @@
         <v>C6</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="3:23">
       <c r="D20" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="5" t="str">
         <f>CONCATENATE($O20,Q$16)</f>
         <v>D2</v>
       </c>
       <c r="R20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="U20" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="V20" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W20" s="5" t="str">
         <f>CONCATENATE($O20,W$16)</f>
@@ -4837,66 +4846,66 @@
     </row>
     <row r="21" spans="3:23">
       <c r="D21" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P21" s="5" t="str">
         <f>CONCATENATE($O21,P$16)</f>
         <v>E1</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R21" s="5" t="str">
         <f>CONCATENATE($O21,R$16)</f>
         <v>E3</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T21" s="5" t="str">
         <f>CONCATENATE($O21,T$16)</f>
         <v>E5</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="3:23">
       <c r="D22" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4909,7 +4918,7 @@
     </row>
     <row r="24" spans="3:23">
       <c r="C24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="10">
@@ -4937,12 +4946,12 @@
         <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="3:23">
       <c r="C25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>374</v>
@@ -4956,12 +4965,12 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="N25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="3:23">
       <c r="D26" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -4974,10 +4983,10 @@
     </row>
     <row r="27" spans="3:23">
       <c r="D27" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -4989,7 +4998,7 @@
     </row>
     <row r="28" spans="3:23">
       <c r="D28" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -5002,7 +5011,7 @@
     </row>
     <row r="29" spans="3:23">
       <c r="D29" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -5015,39 +5024,39 @@
     </row>
     <row r="30" spans="3:23">
       <c r="D30" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L30" s="11"/>
       <c r="O30" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P30" s="5" t="str">
         <f>CONCATENATE($O30,P$16)</f>
         <v>F1</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R30" s="5" t="str">
         <f>CONCATENATE($O30,R$16)</f>
